--- a/XXX（姓名）-专业职级评定能力举证表-技术族-软件研发类-JAVA开发.xlsx
+++ b/XXX（姓名）-专业职级评定能力举证表-技术族-软件研发类-JAVA开发.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iris.wang\Desktop\专业职级评定能力举证表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Clay/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620"/>
   </bookViews>
   <sheets>
     <sheet name="总部" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>专业职级评定能力举证表</t>
   </si>
@@ -147,16 +155,85 @@
   <si>
     <t>复杂业务系统的设计与开发能力</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>与 IM 团队通力合作</t>
+    <rPh sb="0" eb="1">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tong'li</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>he'zuo</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织团队每日总结</t>
+    <rPh sb="0" eb="1">
+      <t>zu'zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tuan'dui</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mei'ri</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zong'jie</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求导向做产品</t>
+    <rPh sb="0" eb="1">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao'xiang</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>chan'pin</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>有所提升</t>
+    <rPh sb="0" eb="1">
+      <t>you'suo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ti'sheng</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>更加熟练</t>
+    <rPh sb="0" eb="1">
+      <t>geng'jia</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'lian</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -203,13 +280,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -372,7 +449,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -390,6 +467,45 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -400,48 +516,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -464,7 +538,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,12 +580,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -541,12 +615,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -753,62 +827,62 @@
   <dimension ref="B2:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D14" sqref="D14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
-    <col min="7" max="9" width="11.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="2:9" ht="171" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -820,11 +894,11 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -836,11 +910,11 @@
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+    </row>
+    <row r="7" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -854,241 +928,263 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="16" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="18"/>
-      <c r="C11" s="17" t="s">
+      <c r="D10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="15"/>
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="17" t="s">
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17" t="s">
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="15"/>
+      <c r="C13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="16" t="s">
+      <c r="D13" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="18"/>
-      <c r="C15" s="17" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="18"/>
-      <c r="C16" s="17" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="18"/>
-      <c r="C17" s="17" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="18"/>
-      <c r="C18" s="17" t="s">
+      <c r="D17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="19" t="s">
+      <c r="D18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
+      <c r="D19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20" t="s">
+      <c r="D20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="19"/>
-      <c r="C22" s="22" t="s">
+      <c r="D21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="19" t="s">
+      <c r="D22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="23"/>
-      <c r="C24" s="20" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="24"/>
-      <c r="C25" s="20" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="17"/>
+      <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="D11:I11"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="B10:B13"/>
@@ -1104,13 +1200,11 @@
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="D17:I17"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D12:I12"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
